--- a/src/api/data/人力资源联络窗口.xlsx
+++ b/src/api/data/人力资源联络窗口.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\媛媛填写\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="15990"/>
   </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="1" r:id="rId4"/>
-    <sheet name="繁体" sheetId="2" r:id="rId5"/>
-    <sheet name="英文" sheetId="3" r:id="rId6"/>
+    <sheet name="中文" sheetId="1" r:id="rId1"/>
+    <sheet name="繁体" sheetId="2" r:id="rId2"/>
+    <sheet name="英文" sheetId="3" r:id="rId3"/>
+    <sheet name="用于此页面" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>title</t>
   </si>
@@ -51,27 +59,77 @@
   <si>
     <t>fanny@hungshang.com.hk</t>
   </si>
+  <si>
+    <t>Company Location Contact Detail
+Hong Kong Hung Shang Electric Limited</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>E-mail address</t>
+  </si>
+  <si>
+    <t>深圳市麦信实业有限公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jocelyn@mansion-technology.com</t>
+  </si>
+  <si>
+    <t>深圳市麥信實業有限公司</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jocelyn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女士</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenzhen Mansion Industrial Co., Ltd.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lady Fanny</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Jocelyn </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -80,8 +138,28 @@
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,8 +178,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -169,68 +253,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207924</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="161925"/>
+          <a:ext cx="13009524" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -356,7 +625,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -365,7 +634,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -374,7 +643,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -448,7 +717,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -456,7 +725,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -475,7 +744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -505,7 +774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -531,7 +800,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -557,7 +826,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,7 +852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +904,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +930,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,7 +956,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -713,7 +982,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -726,9 +995,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -743,7 +1018,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -751,7 +1026,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -770,7 +1045,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +1071,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +1097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +1123,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +1149,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +1175,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +1201,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +1227,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1253,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +1279,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,9 +1292,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1033,7 +1314,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1052,7 +1333,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,7 +1363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1441,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1493,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1519,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1545,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1290,7 +1571,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,87 +1584,915 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7969" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.8594" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="31.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="31.55" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
+    <row r="3" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="14"/>
+      <c r="BM4" s="14"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="14"/>
+      <c r="BP4" s="14"/>
+      <c r="BQ4" s="14"/>
+      <c r="BR4" s="14"/>
+      <c r="BS4" s="14"/>
+      <c r="BT4" s="14"/>
+      <c r="BU4" s="14"/>
+      <c r="BV4" s="14"/>
+      <c r="BW4" s="14"/>
+      <c r="BX4" s="14"/>
+      <c r="BY4" s="14"/>
+      <c r="BZ4" s="14"/>
+      <c r="CA4" s="14"/>
+      <c r="CB4" s="14"/>
+      <c r="CC4" s="14"/>
+      <c r="CD4" s="14"/>
+      <c r="CE4" s="14"/>
+      <c r="CF4" s="14"/>
+      <c r="CG4" s="14"/>
+      <c r="CH4" s="14"/>
+      <c r="CI4" s="14"/>
+      <c r="CJ4" s="14"/>
+      <c r="CK4" s="14"/>
+      <c r="CL4" s="14"/>
+      <c r="CM4" s="14"/>
+      <c r="CN4" s="14"/>
+      <c r="CO4" s="14"/>
+      <c r="CP4" s="14"/>
+      <c r="CQ4" s="14"/>
+      <c r="CR4" s="14"/>
+      <c r="CS4" s="14"/>
+      <c r="CT4" s="14"/>
+      <c r="CU4" s="14"/>
+      <c r="CV4" s="14"/>
+      <c r="CW4" s="14"/>
+      <c r="CX4" s="14"/>
+      <c r="CY4" s="14"/>
+      <c r="CZ4" s="14"/>
+      <c r="DA4" s="14"/>
+      <c r="DB4" s="14"/>
+      <c r="DC4" s="14"/>
+      <c r="DD4" s="14"/>
+      <c r="DE4" s="14"/>
+      <c r="DF4" s="14"/>
+      <c r="DG4" s="14"/>
+      <c r="DH4" s="14"/>
+      <c r="DI4" s="14"/>
+      <c r="DJ4" s="14"/>
+      <c r="DK4" s="14"/>
+      <c r="DL4" s="14"/>
+      <c r="DM4" s="14"/>
+      <c r="DN4" s="14"/>
+      <c r="DO4" s="14"/>
+      <c r="DP4" s="14"/>
+      <c r="DQ4" s="14"/>
+      <c r="DR4" s="14"/>
+      <c r="DS4" s="14"/>
+      <c r="DT4" s="14"/>
+      <c r="DU4" s="14"/>
+      <c r="DV4" s="14"/>
+      <c r="DW4" s="14"/>
+      <c r="DX4" s="14"/>
+      <c r="DY4" s="14"/>
+      <c r="DZ4" s="14"/>
+      <c r="EA4" s="14"/>
+      <c r="EB4" s="14"/>
+      <c r="EC4" s="14"/>
+      <c r="ED4" s="14"/>
+      <c r="EE4" s="14"/>
+      <c r="EF4" s="14"/>
+      <c r="EG4" s="14"/>
+      <c r="EH4" s="14"/>
+      <c r="EI4" s="14"/>
+      <c r="EJ4" s="14"/>
+      <c r="EK4" s="14"/>
+      <c r="EL4" s="14"/>
+      <c r="EM4" s="14"/>
+      <c r="EN4" s="14"/>
+      <c r="EO4" s="14"/>
+      <c r="EP4" s="14"/>
+      <c r="EQ4" s="14"/>
+      <c r="ER4" s="14"/>
+      <c r="ES4" s="14"/>
+      <c r="ET4" s="14"/>
+      <c r="EU4" s="14"/>
+      <c r="EV4" s="14"/>
+      <c r="EW4" s="14"/>
+      <c r="EX4" s="14"/>
+      <c r="EY4" s="14"/>
+      <c r="EZ4" s="14"/>
+      <c r="FA4" s="14"/>
+      <c r="FB4" s="14"/>
+      <c r="FC4" s="14"/>
+      <c r="FD4" s="14"/>
+      <c r="FE4" s="14"/>
+      <c r="FF4" s="14"/>
+      <c r="FG4" s="14"/>
+      <c r="FH4" s="14"/>
+      <c r="FI4" s="14"/>
+      <c r="FJ4" s="14"/>
+      <c r="FK4" s="14"/>
+      <c r="FL4" s="14"/>
+      <c r="FM4" s="14"/>
+      <c r="FN4" s="14"/>
+      <c r="FO4" s="14"/>
+      <c r="FP4" s="14"/>
+      <c r="FQ4" s="14"/>
+      <c r="FR4" s="14"/>
+      <c r="FS4" s="14"/>
+      <c r="FT4" s="14"/>
+      <c r="FU4" s="14"/>
+      <c r="FV4" s="14"/>
+      <c r="FW4" s="14"/>
+      <c r="FX4" s="14"/>
+      <c r="FY4" s="14"/>
+      <c r="FZ4" s="14"/>
+      <c r="GA4" s="14"/>
+      <c r="GB4" s="14"/>
+      <c r="GC4" s="14"/>
+      <c r="GD4" s="14"/>
+      <c r="GE4" s="14"/>
+      <c r="GF4" s="14"/>
+      <c r="GG4" s="14"/>
+      <c r="GH4" s="14"/>
+      <c r="GI4" s="14"/>
+      <c r="GJ4" s="14"/>
+      <c r="GK4" s="14"/>
+      <c r="GL4" s="14"/>
+      <c r="GM4" s="14"/>
+      <c r="GN4" s="14"/>
+      <c r="GO4" s="14"/>
+      <c r="GP4" s="14"/>
+      <c r="GQ4" s="14"/>
+      <c r="GR4" s="14"/>
+      <c r="GS4" s="14"/>
+      <c r="GT4" s="14"/>
+      <c r="GU4" s="14"/>
+      <c r="GV4" s="14"/>
+      <c r="GW4" s="14"/>
+      <c r="GX4" s="14"/>
+      <c r="GY4" s="14"/>
+      <c r="GZ4" s="14"/>
+      <c r="HA4" s="14"/>
+      <c r="HB4" s="14"/>
+      <c r="HC4" s="14"/>
+      <c r="HD4" s="14"/>
+      <c r="HE4" s="14"/>
+      <c r="HF4" s="14"/>
+      <c r="HG4" s="14"/>
+      <c r="HH4" s="14"/>
+      <c r="HI4" s="14"/>
+      <c r="HJ4" s="14"/>
+      <c r="HK4" s="14"/>
+      <c r="HL4" s="14"/>
+      <c r="HM4" s="14"/>
+      <c r="HN4" s="14"/>
+      <c r="HO4" s="14"/>
+      <c r="HP4" s="14"/>
+      <c r="HQ4" s="14"/>
+      <c r="HR4" s="14"/>
+      <c r="HS4" s="14"/>
+      <c r="HT4" s="14"/>
+      <c r="HU4" s="14"/>
+      <c r="HV4" s="14"/>
+      <c r="HW4" s="14"/>
+      <c r="HX4" s="14"/>
+      <c r="HY4" s="14"/>
+      <c r="HZ4" s="14"/>
+      <c r="IA4" s="14"/>
+      <c r="IB4" s="14"/>
+      <c r="IC4" s="14"/>
+      <c r="ID4" s="14"/>
+      <c r="IE4" s="14"/>
+      <c r="IF4" s="14"/>
+      <c r="IG4" s="14"/>
+      <c r="IH4" s="14"/>
+      <c r="II4" s="14"/>
+      <c r="IJ4" s="14"/>
+      <c r="IK4" s="14"/>
+      <c r="IL4" s="14"/>
+      <c r="IM4" s="14"/>
+      <c r="IN4" s="14"/>
+      <c r="IO4" s="14"/>
+      <c r="IP4" s="14"/>
+      <c r="IQ4" s="14"/>
+      <c r="IR4" s="14"/>
+      <c r="IS4" s="14"/>
+      <c r="IT4" s="14"/>
+      <c r="IU4" s="14"/>
+      <c r="IV4" s="14"/>
+    </row>
+    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="14"/>
+      <c r="BM5" s="14"/>
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="14"/>
+      <c r="BP5" s="14"/>
+      <c r="BQ5" s="14"/>
+      <c r="BR5" s="14"/>
+      <c r="BS5" s="14"/>
+      <c r="BT5" s="14"/>
+      <c r="BU5" s="14"/>
+      <c r="BV5" s="14"/>
+      <c r="BW5" s="14"/>
+      <c r="BX5" s="14"/>
+      <c r="BY5" s="14"/>
+      <c r="BZ5" s="14"/>
+      <c r="CA5" s="14"/>
+      <c r="CB5" s="14"/>
+      <c r="CC5" s="14"/>
+      <c r="CD5" s="14"/>
+      <c r="CE5" s="14"/>
+      <c r="CF5" s="14"/>
+      <c r="CG5" s="14"/>
+      <c r="CH5" s="14"/>
+      <c r="CI5" s="14"/>
+      <c r="CJ5" s="14"/>
+      <c r="CK5" s="14"/>
+      <c r="CL5" s="14"/>
+      <c r="CM5" s="14"/>
+      <c r="CN5" s="14"/>
+      <c r="CO5" s="14"/>
+      <c r="CP5" s="14"/>
+      <c r="CQ5" s="14"/>
+      <c r="CR5" s="14"/>
+      <c r="CS5" s="14"/>
+      <c r="CT5" s="14"/>
+      <c r="CU5" s="14"/>
+      <c r="CV5" s="14"/>
+      <c r="CW5" s="14"/>
+      <c r="CX5" s="14"/>
+      <c r="CY5" s="14"/>
+      <c r="CZ5" s="14"/>
+      <c r="DA5" s="14"/>
+      <c r="DB5" s="14"/>
+      <c r="DC5" s="14"/>
+      <c r="DD5" s="14"/>
+      <c r="DE5" s="14"/>
+      <c r="DF5" s="14"/>
+      <c r="DG5" s="14"/>
+      <c r="DH5" s="14"/>
+      <c r="DI5" s="14"/>
+      <c r="DJ5" s="14"/>
+      <c r="DK5" s="14"/>
+      <c r="DL5" s="14"/>
+      <c r="DM5" s="14"/>
+      <c r="DN5" s="14"/>
+      <c r="DO5" s="14"/>
+      <c r="DP5" s="14"/>
+      <c r="DQ5" s="14"/>
+      <c r="DR5" s="14"/>
+      <c r="DS5" s="14"/>
+      <c r="DT5" s="14"/>
+      <c r="DU5" s="14"/>
+      <c r="DV5" s="14"/>
+      <c r="DW5" s="14"/>
+      <c r="DX5" s="14"/>
+      <c r="DY5" s="14"/>
+      <c r="DZ5" s="14"/>
+      <c r="EA5" s="14"/>
+      <c r="EB5" s="14"/>
+      <c r="EC5" s="14"/>
+      <c r="ED5" s="14"/>
+      <c r="EE5" s="14"/>
+      <c r="EF5" s="14"/>
+      <c r="EG5" s="14"/>
+      <c r="EH5" s="14"/>
+      <c r="EI5" s="14"/>
+      <c r="EJ5" s="14"/>
+      <c r="EK5" s="14"/>
+      <c r="EL5" s="14"/>
+      <c r="EM5" s="14"/>
+      <c r="EN5" s="14"/>
+      <c r="EO5" s="14"/>
+      <c r="EP5" s="14"/>
+      <c r="EQ5" s="14"/>
+      <c r="ER5" s="14"/>
+      <c r="ES5" s="14"/>
+      <c r="ET5" s="14"/>
+      <c r="EU5" s="14"/>
+      <c r="EV5" s="14"/>
+      <c r="EW5" s="14"/>
+      <c r="EX5" s="14"/>
+      <c r="EY5" s="14"/>
+      <c r="EZ5" s="14"/>
+      <c r="FA5" s="14"/>
+      <c r="FB5" s="14"/>
+      <c r="FC5" s="14"/>
+      <c r="FD5" s="14"/>
+      <c r="FE5" s="14"/>
+      <c r="FF5" s="14"/>
+      <c r="FG5" s="14"/>
+      <c r="FH5" s="14"/>
+      <c r="FI5" s="14"/>
+      <c r="FJ5" s="14"/>
+      <c r="FK5" s="14"/>
+      <c r="FL5" s="14"/>
+      <c r="FM5" s="14"/>
+      <c r="FN5" s="14"/>
+      <c r="FO5" s="14"/>
+      <c r="FP5" s="14"/>
+      <c r="FQ5" s="14"/>
+      <c r="FR5" s="14"/>
+      <c r="FS5" s="14"/>
+      <c r="FT5" s="14"/>
+      <c r="FU5" s="14"/>
+      <c r="FV5" s="14"/>
+      <c r="FW5" s="14"/>
+      <c r="FX5" s="14"/>
+      <c r="FY5" s="14"/>
+      <c r="FZ5" s="14"/>
+      <c r="GA5" s="14"/>
+      <c r="GB5" s="14"/>
+      <c r="GC5" s="14"/>
+      <c r="GD5" s="14"/>
+      <c r="GE5" s="14"/>
+      <c r="GF5" s="14"/>
+      <c r="GG5" s="14"/>
+      <c r="GH5" s="14"/>
+      <c r="GI5" s="14"/>
+      <c r="GJ5" s="14"/>
+      <c r="GK5" s="14"/>
+      <c r="GL5" s="14"/>
+      <c r="GM5" s="14"/>
+      <c r="GN5" s="14"/>
+      <c r="GO5" s="14"/>
+      <c r="GP5" s="14"/>
+      <c r="GQ5" s="14"/>
+      <c r="GR5" s="14"/>
+      <c r="GS5" s="14"/>
+      <c r="GT5" s="14"/>
+      <c r="GU5" s="14"/>
+      <c r="GV5" s="14"/>
+      <c r="GW5" s="14"/>
+      <c r="GX5" s="14"/>
+      <c r="GY5" s="14"/>
+      <c r="GZ5" s="14"/>
+      <c r="HA5" s="14"/>
+      <c r="HB5" s="14"/>
+      <c r="HC5" s="14"/>
+      <c r="HD5" s="14"/>
+      <c r="HE5" s="14"/>
+      <c r="HF5" s="14"/>
+      <c r="HG5" s="14"/>
+      <c r="HH5" s="14"/>
+      <c r="HI5" s="14"/>
+      <c r="HJ5" s="14"/>
+      <c r="HK5" s="14"/>
+      <c r="HL5" s="14"/>
+      <c r="HM5" s="14"/>
+      <c r="HN5" s="14"/>
+      <c r="HO5" s="14"/>
+      <c r="HP5" s="14"/>
+      <c r="HQ5" s="14"/>
+      <c r="HR5" s="14"/>
+      <c r="HS5" s="14"/>
+      <c r="HT5" s="14"/>
+      <c r="HU5" s="14"/>
+      <c r="HV5" s="14"/>
+      <c r="HW5" s="14"/>
+      <c r="HX5" s="14"/>
+      <c r="HY5" s="14"/>
+      <c r="HZ5" s="14"/>
+      <c r="IA5" s="14"/>
+      <c r="IB5" s="14"/>
+      <c r="IC5" s="14"/>
+      <c r="ID5" s="14"/>
+      <c r="IE5" s="14"/>
+      <c r="IF5" s="14"/>
+      <c r="IG5" s="14"/>
+      <c r="IH5" s="14"/>
+      <c r="II5" s="14"/>
+      <c r="IJ5" s="14"/>
+      <c r="IK5" s="14"/>
+      <c r="IL5" s="14"/>
+      <c r="IM5" s="14"/>
+      <c r="IN5" s="14"/>
+      <c r="IO5" s="14"/>
+      <c r="IP5" s="14"/>
+      <c r="IQ5" s="14"/>
+      <c r="IR5" s="14"/>
+      <c r="IS5" s="14"/>
+      <c r="IT5" s="14"/>
+      <c r="IU5" s="14"/>
+      <c r="IV5" s="14"/>
+    </row>
+    <row r="6" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="14"/>
+      <c r="BM6" s="14"/>
+      <c r="BN6" s="14"/>
+      <c r="BO6" s="14"/>
+      <c r="BP6" s="14"/>
+      <c r="BQ6" s="14"/>
+      <c r="BR6" s="14"/>
+      <c r="BS6" s="14"/>
+      <c r="BT6" s="14"/>
+      <c r="BU6" s="14"/>
+      <c r="BV6" s="14"/>
+      <c r="BW6" s="14"/>
+      <c r="BX6" s="14"/>
+      <c r="BY6" s="14"/>
+      <c r="BZ6" s="14"/>
+      <c r="CA6" s="14"/>
+      <c r="CB6" s="14"/>
+      <c r="CC6" s="14"/>
+      <c r="CD6" s="14"/>
+      <c r="CE6" s="14"/>
+      <c r="CF6" s="14"/>
+      <c r="CG6" s="14"/>
+      <c r="CH6" s="14"/>
+      <c r="CI6" s="14"/>
+      <c r="CJ6" s="14"/>
+      <c r="CK6" s="14"/>
+      <c r="CL6" s="14"/>
+      <c r="CM6" s="14"/>
+      <c r="CN6" s="14"/>
+      <c r="CO6" s="14"/>
+      <c r="CP6" s="14"/>
+      <c r="CQ6" s="14"/>
+      <c r="CR6" s="14"/>
+      <c r="CS6" s="14"/>
+      <c r="CT6" s="14"/>
+      <c r="CU6" s="14"/>
+      <c r="CV6" s="14"/>
+      <c r="CW6" s="14"/>
+      <c r="CX6" s="14"/>
+      <c r="CY6" s="14"/>
+      <c r="CZ6" s="14"/>
+      <c r="DA6" s="14"/>
+      <c r="DB6" s="14"/>
+      <c r="DC6" s="14"/>
+      <c r="DD6" s="14"/>
+      <c r="DE6" s="14"/>
+      <c r="DF6" s="14"/>
+      <c r="DG6" s="14"/>
+      <c r="DH6" s="14"/>
+      <c r="DI6" s="14"/>
+      <c r="DJ6" s="14"/>
+      <c r="DK6" s="14"/>
+      <c r="DL6" s="14"/>
+      <c r="DM6" s="14"/>
+      <c r="DN6" s="14"/>
+      <c r="DO6" s="14"/>
+      <c r="DP6" s="14"/>
+      <c r="DQ6" s="14"/>
+      <c r="DR6" s="14"/>
+      <c r="DS6" s="14"/>
+      <c r="DT6" s="14"/>
+      <c r="DU6" s="14"/>
+      <c r="DV6" s="14"/>
+      <c r="DW6" s="14"/>
+      <c r="DX6" s="14"/>
+      <c r="DY6" s="14"/>
+      <c r="DZ6" s="14"/>
+      <c r="EA6" s="14"/>
+      <c r="EB6" s="14"/>
+      <c r="EC6" s="14"/>
+      <c r="ED6" s="14"/>
+      <c r="EE6" s="14"/>
+      <c r="EF6" s="14"/>
+      <c r="EG6" s="14"/>
+      <c r="EH6" s="14"/>
+      <c r="EI6" s="14"/>
+      <c r="EJ6" s="14"/>
+      <c r="EK6" s="14"/>
+      <c r="EL6" s="14"/>
+      <c r="EM6" s="14"/>
+      <c r="EN6" s="14"/>
+      <c r="EO6" s="14"/>
+      <c r="EP6" s="14"/>
+      <c r="EQ6" s="14"/>
+      <c r="ER6" s="14"/>
+      <c r="ES6" s="14"/>
+      <c r="ET6" s="14"/>
+      <c r="EU6" s="14"/>
+      <c r="EV6" s="14"/>
+      <c r="EW6" s="14"/>
+      <c r="EX6" s="14"/>
+      <c r="EY6" s="14"/>
+      <c r="EZ6" s="14"/>
+      <c r="FA6" s="14"/>
+      <c r="FB6" s="14"/>
+      <c r="FC6" s="14"/>
+      <c r="FD6" s="14"/>
+      <c r="FE6" s="14"/>
+      <c r="FF6" s="14"/>
+      <c r="FG6" s="14"/>
+      <c r="FH6" s="14"/>
+      <c r="FI6" s="14"/>
+      <c r="FJ6" s="14"/>
+      <c r="FK6" s="14"/>
+      <c r="FL6" s="14"/>
+      <c r="FM6" s="14"/>
+      <c r="FN6" s="14"/>
+      <c r="FO6" s="14"/>
+      <c r="FP6" s="14"/>
+      <c r="FQ6" s="14"/>
+      <c r="FR6" s="14"/>
+      <c r="FS6" s="14"/>
+      <c r="FT6" s="14"/>
+      <c r="FU6" s="14"/>
+      <c r="FV6" s="14"/>
+      <c r="FW6" s="14"/>
+      <c r="FX6" s="14"/>
+      <c r="FY6" s="14"/>
+      <c r="FZ6" s="14"/>
+      <c r="GA6" s="14"/>
+      <c r="GB6" s="14"/>
+      <c r="GC6" s="14"/>
+      <c r="GD6" s="14"/>
+      <c r="GE6" s="14"/>
+      <c r="GF6" s="14"/>
+      <c r="GG6" s="14"/>
+      <c r="GH6" s="14"/>
+      <c r="GI6" s="14"/>
+      <c r="GJ6" s="14"/>
+      <c r="GK6" s="14"/>
+      <c r="GL6" s="14"/>
+      <c r="GM6" s="14"/>
+      <c r="GN6" s="14"/>
+      <c r="GO6" s="14"/>
+      <c r="GP6" s="14"/>
+      <c r="GQ6" s="14"/>
+      <c r="GR6" s="14"/>
+      <c r="GS6" s="14"/>
+      <c r="GT6" s="14"/>
+      <c r="GU6" s="14"/>
+      <c r="GV6" s="14"/>
+      <c r="GW6" s="14"/>
+      <c r="GX6" s="14"/>
+      <c r="GY6" s="14"/>
+      <c r="GZ6" s="14"/>
+      <c r="HA6" s="14"/>
+      <c r="HB6" s="14"/>
+      <c r="HC6" s="14"/>
+      <c r="HD6" s="14"/>
+      <c r="HE6" s="14"/>
+      <c r="HF6" s="14"/>
+      <c r="HG6" s="14"/>
+      <c r="HH6" s="14"/>
+      <c r="HI6" s="14"/>
+      <c r="HJ6" s="14"/>
+      <c r="HK6" s="14"/>
+      <c r="HL6" s="14"/>
+      <c r="HM6" s="14"/>
+      <c r="HN6" s="14"/>
+      <c r="HO6" s="14"/>
+      <c r="HP6" s="14"/>
+      <c r="HQ6" s="14"/>
+      <c r="HR6" s="14"/>
+      <c r="HS6" s="14"/>
+      <c r="HT6" s="14"/>
+      <c r="HU6" s="14"/>
+      <c r="HV6" s="14"/>
+      <c r="HW6" s="14"/>
+      <c r="HX6" s="14"/>
+      <c r="HY6" s="14"/>
+      <c r="HZ6" s="14"/>
+      <c r="IA6" s="14"/>
+      <c r="IB6" s="14"/>
+      <c r="IC6" s="14"/>
+      <c r="ID6" s="14"/>
+      <c r="IE6" s="14"/>
+      <c r="IF6" s="14"/>
+      <c r="IG6" s="14"/>
+      <c r="IH6" s="14"/>
+      <c r="II6" s="14"/>
+      <c r="IJ6" s="14"/>
+      <c r="IK6" s="14"/>
+      <c r="IL6" s="14"/>
+      <c r="IM6" s="14"/>
+      <c r="IN6" s="14"/>
+      <c r="IO6" s="14"/>
+      <c r="IP6" s="14"/>
+      <c r="IQ6" s="14"/>
+      <c r="IR6" s="14"/>
+      <c r="IS6" s="14"/>
+      <c r="IT6" s="14"/>
+      <c r="IU6" s="14"/>
+      <c r="IV6" s="14"/>
+    </row>
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1391,76 +2500,1139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" style="7" customWidth="1"/>
-    <col min="2" max="2" width="17.7969" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.3516" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.6719" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.8594" style="7" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="7" customWidth="1"/>
+    <col min="1" max="1" width="29" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="13" customWidth="1"/>
+    <col min="7" max="256" width="16.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="31.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="31.55" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
+    <row r="3" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
+      <c r="CU3" s="14"/>
+      <c r="CV3" s="14"/>
+      <c r="CW3" s="14"/>
+      <c r="CX3" s="14"/>
+      <c r="CY3" s="14"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="14"/>
+      <c r="DB3" s="14"/>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+      <c r="DE3" s="14"/>
+      <c r="DF3" s="14"/>
+      <c r="DG3" s="14"/>
+      <c r="DH3" s="14"/>
+      <c r="DI3" s="14"/>
+      <c r="DJ3" s="14"/>
+      <c r="DK3" s="14"/>
+      <c r="DL3" s="14"/>
+      <c r="DM3" s="14"/>
+      <c r="DN3" s="14"/>
+      <c r="DO3" s="14"/>
+      <c r="DP3" s="14"/>
+      <c r="DQ3" s="14"/>
+      <c r="DR3" s="14"/>
+      <c r="DS3" s="14"/>
+      <c r="DT3" s="14"/>
+      <c r="DU3" s="14"/>
+      <c r="DV3" s="14"/>
+      <c r="DW3" s="14"/>
+      <c r="DX3" s="14"/>
+      <c r="DY3" s="14"/>
+      <c r="DZ3" s="14"/>
+      <c r="EA3" s="14"/>
+      <c r="EB3" s="14"/>
+      <c r="EC3" s="14"/>
+      <c r="ED3" s="14"/>
+      <c r="EE3" s="14"/>
+      <c r="EF3" s="14"/>
+      <c r="EG3" s="14"/>
+      <c r="EH3" s="14"/>
+      <c r="EI3" s="14"/>
+      <c r="EJ3" s="14"/>
+      <c r="EK3" s="14"/>
+      <c r="EL3" s="14"/>
+      <c r="EM3" s="14"/>
+      <c r="EN3" s="14"/>
+      <c r="EO3" s="14"/>
+      <c r="EP3" s="14"/>
+      <c r="EQ3" s="14"/>
+      <c r="ER3" s="14"/>
+      <c r="ES3" s="14"/>
+      <c r="ET3" s="14"/>
+      <c r="EU3" s="14"/>
+      <c r="EV3" s="14"/>
+      <c r="EW3" s="14"/>
+      <c r="EX3" s="14"/>
+      <c r="EY3" s="14"/>
+      <c r="EZ3" s="14"/>
+      <c r="FA3" s="14"/>
+      <c r="FB3" s="14"/>
+      <c r="FC3" s="14"/>
+      <c r="FD3" s="14"/>
+      <c r="FE3" s="14"/>
+      <c r="FF3" s="14"/>
+      <c r="FG3" s="14"/>
+      <c r="FH3" s="14"/>
+      <c r="FI3" s="14"/>
+      <c r="FJ3" s="14"/>
+      <c r="FK3" s="14"/>
+      <c r="FL3" s="14"/>
+      <c r="FM3" s="14"/>
+      <c r="FN3" s="14"/>
+      <c r="FO3" s="14"/>
+      <c r="FP3" s="14"/>
+      <c r="FQ3" s="14"/>
+      <c r="FR3" s="14"/>
+      <c r="FS3" s="14"/>
+      <c r="FT3" s="14"/>
+      <c r="FU3" s="14"/>
+      <c r="FV3" s="14"/>
+      <c r="FW3" s="14"/>
+      <c r="FX3" s="14"/>
+      <c r="FY3" s="14"/>
+      <c r="FZ3" s="14"/>
+      <c r="GA3" s="14"/>
+      <c r="GB3" s="14"/>
+      <c r="GC3" s="14"/>
+      <c r="GD3" s="14"/>
+      <c r="GE3" s="14"/>
+      <c r="GF3" s="14"/>
+      <c r="GG3" s="14"/>
+      <c r="GH3" s="14"/>
+      <c r="GI3" s="14"/>
+      <c r="GJ3" s="14"/>
+      <c r="GK3" s="14"/>
+      <c r="GL3" s="14"/>
+      <c r="GM3" s="14"/>
+      <c r="GN3" s="14"/>
+      <c r="GO3" s="14"/>
+      <c r="GP3" s="14"/>
+      <c r="GQ3" s="14"/>
+      <c r="GR3" s="14"/>
+      <c r="GS3" s="14"/>
+      <c r="GT3" s="14"/>
+      <c r="GU3" s="14"/>
+      <c r="GV3" s="14"/>
+      <c r="GW3" s="14"/>
+      <c r="GX3" s="14"/>
+      <c r="GY3" s="14"/>
+      <c r="GZ3" s="14"/>
+      <c r="HA3" s="14"/>
+      <c r="HB3" s="14"/>
+      <c r="HC3" s="14"/>
+      <c r="HD3" s="14"/>
+      <c r="HE3" s="14"/>
+      <c r="HF3" s="14"/>
+      <c r="HG3" s="14"/>
+      <c r="HH3" s="14"/>
+      <c r="HI3" s="14"/>
+      <c r="HJ3" s="14"/>
+      <c r="HK3" s="14"/>
+      <c r="HL3" s="14"/>
+      <c r="HM3" s="14"/>
+      <c r="HN3" s="14"/>
+      <c r="HO3" s="14"/>
+      <c r="HP3" s="14"/>
+      <c r="HQ3" s="14"/>
+      <c r="HR3" s="14"/>
+      <c r="HS3" s="14"/>
+      <c r="HT3" s="14"/>
+      <c r="HU3" s="14"/>
+      <c r="HV3" s="14"/>
+      <c r="HW3" s="14"/>
+      <c r="HX3" s="14"/>
+      <c r="HY3" s="14"/>
+      <c r="HZ3" s="14"/>
+      <c r="IA3" s="14"/>
+      <c r="IB3" s="14"/>
+      <c r="IC3" s="14"/>
+      <c r="ID3" s="14"/>
+      <c r="IE3" s="14"/>
+      <c r="IF3" s="14"/>
+      <c r="IG3" s="14"/>
+      <c r="IH3" s="14"/>
+      <c r="II3" s="14"/>
+      <c r="IJ3" s="14"/>
+      <c r="IK3" s="14"/>
+      <c r="IL3" s="14"/>
+      <c r="IM3" s="14"/>
+      <c r="IN3" s="14"/>
+      <c r="IO3" s="14"/>
+      <c r="IP3" s="14"/>
+      <c r="IQ3" s="14"/>
+      <c r="IR3" s="14"/>
+      <c r="IS3" s="14"/>
+      <c r="IT3" s="14"/>
+      <c r="IU3" s="14"/>
+      <c r="IV3" s="14"/>
+    </row>
+    <row r="4" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="14"/>
+      <c r="BM4" s="14"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="14"/>
+      <c r="BP4" s="14"/>
+      <c r="BQ4" s="14"/>
+      <c r="BR4" s="14"/>
+      <c r="BS4" s="14"/>
+      <c r="BT4" s="14"/>
+      <c r="BU4" s="14"/>
+      <c r="BV4" s="14"/>
+      <c r="BW4" s="14"/>
+      <c r="BX4" s="14"/>
+      <c r="BY4" s="14"/>
+      <c r="BZ4" s="14"/>
+      <c r="CA4" s="14"/>
+      <c r="CB4" s="14"/>
+      <c r="CC4" s="14"/>
+      <c r="CD4" s="14"/>
+      <c r="CE4" s="14"/>
+      <c r="CF4" s="14"/>
+      <c r="CG4" s="14"/>
+      <c r="CH4" s="14"/>
+      <c r="CI4" s="14"/>
+      <c r="CJ4" s="14"/>
+      <c r="CK4" s="14"/>
+      <c r="CL4" s="14"/>
+      <c r="CM4" s="14"/>
+      <c r="CN4" s="14"/>
+      <c r="CO4" s="14"/>
+      <c r="CP4" s="14"/>
+      <c r="CQ4" s="14"/>
+      <c r="CR4" s="14"/>
+      <c r="CS4" s="14"/>
+      <c r="CT4" s="14"/>
+      <c r="CU4" s="14"/>
+      <c r="CV4" s="14"/>
+      <c r="CW4" s="14"/>
+      <c r="CX4" s="14"/>
+      <c r="CY4" s="14"/>
+      <c r="CZ4" s="14"/>
+      <c r="DA4" s="14"/>
+      <c r="DB4" s="14"/>
+      <c r="DC4" s="14"/>
+      <c r="DD4" s="14"/>
+      <c r="DE4" s="14"/>
+      <c r="DF4" s="14"/>
+      <c r="DG4" s="14"/>
+      <c r="DH4" s="14"/>
+      <c r="DI4" s="14"/>
+      <c r="DJ4" s="14"/>
+      <c r="DK4" s="14"/>
+      <c r="DL4" s="14"/>
+      <c r="DM4" s="14"/>
+      <c r="DN4" s="14"/>
+      <c r="DO4" s="14"/>
+      <c r="DP4" s="14"/>
+      <c r="DQ4" s="14"/>
+      <c r="DR4" s="14"/>
+      <c r="DS4" s="14"/>
+      <c r="DT4" s="14"/>
+      <c r="DU4" s="14"/>
+      <c r="DV4" s="14"/>
+      <c r="DW4" s="14"/>
+      <c r="DX4" s="14"/>
+      <c r="DY4" s="14"/>
+      <c r="DZ4" s="14"/>
+      <c r="EA4" s="14"/>
+      <c r="EB4" s="14"/>
+      <c r="EC4" s="14"/>
+      <c r="ED4" s="14"/>
+      <c r="EE4" s="14"/>
+      <c r="EF4" s="14"/>
+      <c r="EG4" s="14"/>
+      <c r="EH4" s="14"/>
+      <c r="EI4" s="14"/>
+      <c r="EJ4" s="14"/>
+      <c r="EK4" s="14"/>
+      <c r="EL4" s="14"/>
+      <c r="EM4" s="14"/>
+      <c r="EN4" s="14"/>
+      <c r="EO4" s="14"/>
+      <c r="EP4" s="14"/>
+      <c r="EQ4" s="14"/>
+      <c r="ER4" s="14"/>
+      <c r="ES4" s="14"/>
+      <c r="ET4" s="14"/>
+      <c r="EU4" s="14"/>
+      <c r="EV4" s="14"/>
+      <c r="EW4" s="14"/>
+      <c r="EX4" s="14"/>
+      <c r="EY4" s="14"/>
+      <c r="EZ4" s="14"/>
+      <c r="FA4" s="14"/>
+      <c r="FB4" s="14"/>
+      <c r="FC4" s="14"/>
+      <c r="FD4" s="14"/>
+      <c r="FE4" s="14"/>
+      <c r="FF4" s="14"/>
+      <c r="FG4" s="14"/>
+      <c r="FH4" s="14"/>
+      <c r="FI4" s="14"/>
+      <c r="FJ4" s="14"/>
+      <c r="FK4" s="14"/>
+      <c r="FL4" s="14"/>
+      <c r="FM4" s="14"/>
+      <c r="FN4" s="14"/>
+      <c r="FO4" s="14"/>
+      <c r="FP4" s="14"/>
+      <c r="FQ4" s="14"/>
+      <c r="FR4" s="14"/>
+      <c r="FS4" s="14"/>
+      <c r="FT4" s="14"/>
+      <c r="FU4" s="14"/>
+      <c r="FV4" s="14"/>
+      <c r="FW4" s="14"/>
+      <c r="FX4" s="14"/>
+      <c r="FY4" s="14"/>
+      <c r="FZ4" s="14"/>
+      <c r="GA4" s="14"/>
+      <c r="GB4" s="14"/>
+      <c r="GC4" s="14"/>
+      <c r="GD4" s="14"/>
+      <c r="GE4" s="14"/>
+      <c r="GF4" s="14"/>
+      <c r="GG4" s="14"/>
+      <c r="GH4" s="14"/>
+      <c r="GI4" s="14"/>
+      <c r="GJ4" s="14"/>
+      <c r="GK4" s="14"/>
+      <c r="GL4" s="14"/>
+      <c r="GM4" s="14"/>
+      <c r="GN4" s="14"/>
+      <c r="GO4" s="14"/>
+      <c r="GP4" s="14"/>
+      <c r="GQ4" s="14"/>
+      <c r="GR4" s="14"/>
+      <c r="GS4" s="14"/>
+      <c r="GT4" s="14"/>
+      <c r="GU4" s="14"/>
+      <c r="GV4" s="14"/>
+      <c r="GW4" s="14"/>
+      <c r="GX4" s="14"/>
+      <c r="GY4" s="14"/>
+      <c r="GZ4" s="14"/>
+      <c r="HA4" s="14"/>
+      <c r="HB4" s="14"/>
+      <c r="HC4" s="14"/>
+      <c r="HD4" s="14"/>
+      <c r="HE4" s="14"/>
+      <c r="HF4" s="14"/>
+      <c r="HG4" s="14"/>
+      <c r="HH4" s="14"/>
+      <c r="HI4" s="14"/>
+      <c r="HJ4" s="14"/>
+      <c r="HK4" s="14"/>
+      <c r="HL4" s="14"/>
+      <c r="HM4" s="14"/>
+      <c r="HN4" s="14"/>
+      <c r="HO4" s="14"/>
+      <c r="HP4" s="14"/>
+      <c r="HQ4" s="14"/>
+      <c r="HR4" s="14"/>
+      <c r="HS4" s="14"/>
+      <c r="HT4" s="14"/>
+      <c r="HU4" s="14"/>
+      <c r="HV4" s="14"/>
+      <c r="HW4" s="14"/>
+      <c r="HX4" s="14"/>
+      <c r="HY4" s="14"/>
+      <c r="HZ4" s="14"/>
+      <c r="IA4" s="14"/>
+      <c r="IB4" s="14"/>
+      <c r="IC4" s="14"/>
+      <c r="ID4" s="14"/>
+      <c r="IE4" s="14"/>
+      <c r="IF4" s="14"/>
+      <c r="IG4" s="14"/>
+      <c r="IH4" s="14"/>
+      <c r="II4" s="14"/>
+      <c r="IJ4" s="14"/>
+      <c r="IK4" s="14"/>
+      <c r="IL4" s="14"/>
+      <c r="IM4" s="14"/>
+      <c r="IN4" s="14"/>
+      <c r="IO4" s="14"/>
+      <c r="IP4" s="14"/>
+      <c r="IQ4" s="14"/>
+      <c r="IR4" s="14"/>
+      <c r="IS4" s="14"/>
+      <c r="IT4" s="14"/>
+      <c r="IU4" s="14"/>
+      <c r="IV4" s="14"/>
+    </row>
+    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="14"/>
+      <c r="BM5" s="14"/>
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="14"/>
+      <c r="BP5" s="14"/>
+      <c r="BQ5" s="14"/>
+      <c r="BR5" s="14"/>
+      <c r="BS5" s="14"/>
+      <c r="BT5" s="14"/>
+      <c r="BU5" s="14"/>
+      <c r="BV5" s="14"/>
+      <c r="BW5" s="14"/>
+      <c r="BX5" s="14"/>
+      <c r="BY5" s="14"/>
+      <c r="BZ5" s="14"/>
+      <c r="CA5" s="14"/>
+      <c r="CB5" s="14"/>
+      <c r="CC5" s="14"/>
+      <c r="CD5" s="14"/>
+      <c r="CE5" s="14"/>
+      <c r="CF5" s="14"/>
+      <c r="CG5" s="14"/>
+      <c r="CH5" s="14"/>
+      <c r="CI5" s="14"/>
+      <c r="CJ5" s="14"/>
+      <c r="CK5" s="14"/>
+      <c r="CL5" s="14"/>
+      <c r="CM5" s="14"/>
+      <c r="CN5" s="14"/>
+      <c r="CO5" s="14"/>
+      <c r="CP5" s="14"/>
+      <c r="CQ5" s="14"/>
+      <c r="CR5" s="14"/>
+      <c r="CS5" s="14"/>
+      <c r="CT5" s="14"/>
+      <c r="CU5" s="14"/>
+      <c r="CV5" s="14"/>
+      <c r="CW5" s="14"/>
+      <c r="CX5" s="14"/>
+      <c r="CY5" s="14"/>
+      <c r="CZ5" s="14"/>
+      <c r="DA5" s="14"/>
+      <c r="DB5" s="14"/>
+      <c r="DC5" s="14"/>
+      <c r="DD5" s="14"/>
+      <c r="DE5" s="14"/>
+      <c r="DF5" s="14"/>
+      <c r="DG5" s="14"/>
+      <c r="DH5" s="14"/>
+      <c r="DI5" s="14"/>
+      <c r="DJ5" s="14"/>
+      <c r="DK5" s="14"/>
+      <c r="DL5" s="14"/>
+      <c r="DM5" s="14"/>
+      <c r="DN5" s="14"/>
+      <c r="DO5" s="14"/>
+      <c r="DP5" s="14"/>
+      <c r="DQ5" s="14"/>
+      <c r="DR5" s="14"/>
+      <c r="DS5" s="14"/>
+      <c r="DT5" s="14"/>
+      <c r="DU5" s="14"/>
+      <c r="DV5" s="14"/>
+      <c r="DW5" s="14"/>
+      <c r="DX5" s="14"/>
+      <c r="DY5" s="14"/>
+      <c r="DZ5" s="14"/>
+      <c r="EA5" s="14"/>
+      <c r="EB5" s="14"/>
+      <c r="EC5" s="14"/>
+      <c r="ED5" s="14"/>
+      <c r="EE5" s="14"/>
+      <c r="EF5" s="14"/>
+      <c r="EG5" s="14"/>
+      <c r="EH5" s="14"/>
+      <c r="EI5" s="14"/>
+      <c r="EJ5" s="14"/>
+      <c r="EK5" s="14"/>
+      <c r="EL5" s="14"/>
+      <c r="EM5" s="14"/>
+      <c r="EN5" s="14"/>
+      <c r="EO5" s="14"/>
+      <c r="EP5" s="14"/>
+      <c r="EQ5" s="14"/>
+      <c r="ER5" s="14"/>
+      <c r="ES5" s="14"/>
+      <c r="ET5" s="14"/>
+      <c r="EU5" s="14"/>
+      <c r="EV5" s="14"/>
+      <c r="EW5" s="14"/>
+      <c r="EX5" s="14"/>
+      <c r="EY5" s="14"/>
+      <c r="EZ5" s="14"/>
+      <c r="FA5" s="14"/>
+      <c r="FB5" s="14"/>
+      <c r="FC5" s="14"/>
+      <c r="FD5" s="14"/>
+      <c r="FE5" s="14"/>
+      <c r="FF5" s="14"/>
+      <c r="FG5" s="14"/>
+      <c r="FH5" s="14"/>
+      <c r="FI5" s="14"/>
+      <c r="FJ5" s="14"/>
+      <c r="FK5" s="14"/>
+      <c r="FL5" s="14"/>
+      <c r="FM5" s="14"/>
+      <c r="FN5" s="14"/>
+      <c r="FO5" s="14"/>
+      <c r="FP5" s="14"/>
+      <c r="FQ5" s="14"/>
+      <c r="FR5" s="14"/>
+      <c r="FS5" s="14"/>
+      <c r="FT5" s="14"/>
+      <c r="FU5" s="14"/>
+      <c r="FV5" s="14"/>
+      <c r="FW5" s="14"/>
+      <c r="FX5" s="14"/>
+      <c r="FY5" s="14"/>
+      <c r="FZ5" s="14"/>
+      <c r="GA5" s="14"/>
+      <c r="GB5" s="14"/>
+      <c r="GC5" s="14"/>
+      <c r="GD5" s="14"/>
+      <c r="GE5" s="14"/>
+      <c r="GF5" s="14"/>
+      <c r="GG5" s="14"/>
+      <c r="GH5" s="14"/>
+      <c r="GI5" s="14"/>
+      <c r="GJ5" s="14"/>
+      <c r="GK5" s="14"/>
+      <c r="GL5" s="14"/>
+      <c r="GM5" s="14"/>
+      <c r="GN5" s="14"/>
+      <c r="GO5" s="14"/>
+      <c r="GP5" s="14"/>
+      <c r="GQ5" s="14"/>
+      <c r="GR5" s="14"/>
+      <c r="GS5" s="14"/>
+      <c r="GT5" s="14"/>
+      <c r="GU5" s="14"/>
+      <c r="GV5" s="14"/>
+      <c r="GW5" s="14"/>
+      <c r="GX5" s="14"/>
+      <c r="GY5" s="14"/>
+      <c r="GZ5" s="14"/>
+      <c r="HA5" s="14"/>
+      <c r="HB5" s="14"/>
+      <c r="HC5" s="14"/>
+      <c r="HD5" s="14"/>
+      <c r="HE5" s="14"/>
+      <c r="HF5" s="14"/>
+      <c r="HG5" s="14"/>
+      <c r="HH5" s="14"/>
+      <c r="HI5" s="14"/>
+      <c r="HJ5" s="14"/>
+      <c r="HK5" s="14"/>
+      <c r="HL5" s="14"/>
+      <c r="HM5" s="14"/>
+      <c r="HN5" s="14"/>
+      <c r="HO5" s="14"/>
+      <c r="HP5" s="14"/>
+      <c r="HQ5" s="14"/>
+      <c r="HR5" s="14"/>
+      <c r="HS5" s="14"/>
+      <c r="HT5" s="14"/>
+      <c r="HU5" s="14"/>
+      <c r="HV5" s="14"/>
+      <c r="HW5" s="14"/>
+      <c r="HX5" s="14"/>
+      <c r="HY5" s="14"/>
+      <c r="HZ5" s="14"/>
+      <c r="IA5" s="14"/>
+      <c r="IB5" s="14"/>
+      <c r="IC5" s="14"/>
+      <c r="ID5" s="14"/>
+      <c r="IE5" s="14"/>
+      <c r="IF5" s="14"/>
+      <c r="IG5" s="14"/>
+      <c r="IH5" s="14"/>
+      <c r="II5" s="14"/>
+      <c r="IJ5" s="14"/>
+      <c r="IK5" s="14"/>
+      <c r="IL5" s="14"/>
+      <c r="IM5" s="14"/>
+      <c r="IN5" s="14"/>
+      <c r="IO5" s="14"/>
+      <c r="IP5" s="14"/>
+      <c r="IQ5" s="14"/>
+      <c r="IR5" s="14"/>
+      <c r="IS5" s="14"/>
+      <c r="IT5" s="14"/>
+      <c r="IU5" s="14"/>
+      <c r="IV5" s="14"/>
+    </row>
+    <row r="6" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="14"/>
+      <c r="BM6" s="14"/>
+      <c r="BN6" s="14"/>
+      <c r="BO6" s="14"/>
+      <c r="BP6" s="14"/>
+      <c r="BQ6" s="14"/>
+      <c r="BR6" s="14"/>
+      <c r="BS6" s="14"/>
+      <c r="BT6" s="14"/>
+      <c r="BU6" s="14"/>
+      <c r="BV6" s="14"/>
+      <c r="BW6" s="14"/>
+      <c r="BX6" s="14"/>
+      <c r="BY6" s="14"/>
+      <c r="BZ6" s="14"/>
+      <c r="CA6" s="14"/>
+      <c r="CB6" s="14"/>
+      <c r="CC6" s="14"/>
+      <c r="CD6" s="14"/>
+      <c r="CE6" s="14"/>
+      <c r="CF6" s="14"/>
+      <c r="CG6" s="14"/>
+      <c r="CH6" s="14"/>
+      <c r="CI6" s="14"/>
+      <c r="CJ6" s="14"/>
+      <c r="CK6" s="14"/>
+      <c r="CL6" s="14"/>
+      <c r="CM6" s="14"/>
+      <c r="CN6" s="14"/>
+      <c r="CO6" s="14"/>
+      <c r="CP6" s="14"/>
+      <c r="CQ6" s="14"/>
+      <c r="CR6" s="14"/>
+      <c r="CS6" s="14"/>
+      <c r="CT6" s="14"/>
+      <c r="CU6" s="14"/>
+      <c r="CV6" s="14"/>
+      <c r="CW6" s="14"/>
+      <c r="CX6" s="14"/>
+      <c r="CY6" s="14"/>
+      <c r="CZ6" s="14"/>
+      <c r="DA6" s="14"/>
+      <c r="DB6" s="14"/>
+      <c r="DC6" s="14"/>
+      <c r="DD6" s="14"/>
+      <c r="DE6" s="14"/>
+      <c r="DF6" s="14"/>
+      <c r="DG6" s="14"/>
+      <c r="DH6" s="14"/>
+      <c r="DI6" s="14"/>
+      <c r="DJ6" s="14"/>
+      <c r="DK6" s="14"/>
+      <c r="DL6" s="14"/>
+      <c r="DM6" s="14"/>
+      <c r="DN6" s="14"/>
+      <c r="DO6" s="14"/>
+      <c r="DP6" s="14"/>
+      <c r="DQ6" s="14"/>
+      <c r="DR6" s="14"/>
+      <c r="DS6" s="14"/>
+      <c r="DT6" s="14"/>
+      <c r="DU6" s="14"/>
+      <c r="DV6" s="14"/>
+      <c r="DW6" s="14"/>
+      <c r="DX6" s="14"/>
+      <c r="DY6" s="14"/>
+      <c r="DZ6" s="14"/>
+      <c r="EA6" s="14"/>
+      <c r="EB6" s="14"/>
+      <c r="EC6" s="14"/>
+      <c r="ED6" s="14"/>
+      <c r="EE6" s="14"/>
+      <c r="EF6" s="14"/>
+      <c r="EG6" s="14"/>
+      <c r="EH6" s="14"/>
+      <c r="EI6" s="14"/>
+      <c r="EJ6" s="14"/>
+      <c r="EK6" s="14"/>
+      <c r="EL6" s="14"/>
+      <c r="EM6" s="14"/>
+      <c r="EN6" s="14"/>
+      <c r="EO6" s="14"/>
+      <c r="EP6" s="14"/>
+      <c r="EQ6" s="14"/>
+      <c r="ER6" s="14"/>
+      <c r="ES6" s="14"/>
+      <c r="ET6" s="14"/>
+      <c r="EU6" s="14"/>
+      <c r="EV6" s="14"/>
+      <c r="EW6" s="14"/>
+      <c r="EX6" s="14"/>
+      <c r="EY6" s="14"/>
+      <c r="EZ6" s="14"/>
+      <c r="FA6" s="14"/>
+      <c r="FB6" s="14"/>
+      <c r="FC6" s="14"/>
+      <c r="FD6" s="14"/>
+      <c r="FE6" s="14"/>
+      <c r="FF6" s="14"/>
+      <c r="FG6" s="14"/>
+      <c r="FH6" s="14"/>
+      <c r="FI6" s="14"/>
+      <c r="FJ6" s="14"/>
+      <c r="FK6" s="14"/>
+      <c r="FL6" s="14"/>
+      <c r="FM6" s="14"/>
+      <c r="FN6" s="14"/>
+      <c r="FO6" s="14"/>
+      <c r="FP6" s="14"/>
+      <c r="FQ6" s="14"/>
+      <c r="FR6" s="14"/>
+      <c r="FS6" s="14"/>
+      <c r="FT6" s="14"/>
+      <c r="FU6" s="14"/>
+      <c r="FV6" s="14"/>
+      <c r="FW6" s="14"/>
+      <c r="FX6" s="14"/>
+      <c r="FY6" s="14"/>
+      <c r="FZ6" s="14"/>
+      <c r="GA6" s="14"/>
+      <c r="GB6" s="14"/>
+      <c r="GC6" s="14"/>
+      <c r="GD6" s="14"/>
+      <c r="GE6" s="14"/>
+      <c r="GF6" s="14"/>
+      <c r="GG6" s="14"/>
+      <c r="GH6" s="14"/>
+      <c r="GI6" s="14"/>
+      <c r="GJ6" s="14"/>
+      <c r="GK6" s="14"/>
+      <c r="GL6" s="14"/>
+      <c r="GM6" s="14"/>
+      <c r="GN6" s="14"/>
+      <c r="GO6" s="14"/>
+      <c r="GP6" s="14"/>
+      <c r="GQ6" s="14"/>
+      <c r="GR6" s="14"/>
+      <c r="GS6" s="14"/>
+      <c r="GT6" s="14"/>
+      <c r="GU6" s="14"/>
+      <c r="GV6" s="14"/>
+      <c r="GW6" s="14"/>
+      <c r="GX6" s="14"/>
+      <c r="GY6" s="14"/>
+      <c r="GZ6" s="14"/>
+      <c r="HA6" s="14"/>
+      <c r="HB6" s="14"/>
+      <c r="HC6" s="14"/>
+      <c r="HD6" s="14"/>
+      <c r="HE6" s="14"/>
+      <c r="HF6" s="14"/>
+      <c r="HG6" s="14"/>
+      <c r="HH6" s="14"/>
+      <c r="HI6" s="14"/>
+      <c r="HJ6" s="14"/>
+      <c r="HK6" s="14"/>
+      <c r="HL6" s="14"/>
+      <c r="HM6" s="14"/>
+      <c r="HN6" s="14"/>
+      <c r="HO6" s="14"/>
+      <c r="HP6" s="14"/>
+      <c r="HQ6" s="14"/>
+      <c r="HR6" s="14"/>
+      <c r="HS6" s="14"/>
+      <c r="HT6" s="14"/>
+      <c r="HU6" s="14"/>
+      <c r="HV6" s="14"/>
+      <c r="HW6" s="14"/>
+      <c r="HX6" s="14"/>
+      <c r="HY6" s="14"/>
+      <c r="HZ6" s="14"/>
+      <c r="IA6" s="14"/>
+      <c r="IB6" s="14"/>
+      <c r="IC6" s="14"/>
+      <c r="ID6" s="14"/>
+      <c r="IE6" s="14"/>
+      <c r="IF6" s="14"/>
+      <c r="IG6" s="14"/>
+      <c r="IH6" s="14"/>
+      <c r="II6" s="14"/>
+      <c r="IJ6" s="14"/>
+      <c r="IK6" s="14"/>
+      <c r="IL6" s="14"/>
+      <c r="IM6" s="14"/>
+      <c r="IN6" s="14"/>
+      <c r="IO6" s="14"/>
+      <c r="IP6" s="14"/>
+      <c r="IQ6" s="14"/>
+      <c r="IR6" s="14"/>
+      <c r="IS6" s="14"/>
+      <c r="IT6" s="14"/>
+      <c r="IU6" s="14"/>
+      <c r="IV6" s="14"/>
+    </row>
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1468,78 +3640,157 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.7969" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.3516" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.6719" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.8594" style="8" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="8" customWidth="1"/>
+    <col min="1" max="1" width="29" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="14" customWidth="1"/>
+    <col min="7" max="256" width="16.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="31.55" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s" s="4">
+    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="31.55" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/api/data/人力资源联络窗口.xlsx
+++ b/src/api/data/人力资源联络窗口.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\媛媛填写\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\hongsheng\src\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFB3D55-FF77-4FA5-9DB4-8CE8CD8C15F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="15960" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中文" sheetId="1" r:id="rId1"/>
@@ -115,18 +116,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Lady Fanny</t>
+    <t>Ms.Fanny</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Lady Jocelyn </t>
+    <t xml:space="preserve">Ms.Jocelyn </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -472,7 +473,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1602,28 +1609,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1663,7 +1670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
@@ -1683,7 +1690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -1941,7 +1948,7 @@
       <c r="IU4" s="14"/>
       <c r="IV4" s="14"/>
     </row>
-    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -2199,7 +2206,7 @@
       <c r="IU5" s="14"/>
       <c r="IV5" s="14"/>
     </row>
-    <row r="6" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
@@ -2457,7 +2464,7 @@
       <c r="IU6" s="14"/>
       <c r="IV6" s="14"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2465,7 +2472,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2473,7 +2480,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2481,7 +2488,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2500,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2510,18 +2517,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="13" customWidth="1"/>
-    <col min="7" max="256" width="16.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" style="13" customWidth="1"/>
+    <col min="7" max="256" width="16.26953125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2541,7 +2548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2561,7 +2568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
@@ -2831,7 +2838,7 @@
       <c r="IU3" s="14"/>
       <c r="IV3" s="14"/>
     </row>
-    <row r="4" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -3089,7 +3096,7 @@
       <c r="IU4" s="14"/>
       <c r="IV4" s="14"/>
     </row>
-    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -3347,7 +3354,7 @@
       <c r="IU5" s="14"/>
       <c r="IV5" s="14"/>
     </row>
-    <row r="6" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
@@ -3605,7 +3612,7 @@
       <c r="IU6" s="14"/>
       <c r="IV6" s="14"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -3613,7 +3620,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -3621,7 +3628,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3640,28 +3647,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="14" customWidth="1"/>
-    <col min="7" max="256" width="16.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" style="14" customWidth="1"/>
+    <col min="7" max="256" width="16.26953125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3681,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3701,7 +3708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -3721,7 +3728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -3729,7 +3736,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -3737,7 +3744,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
@@ -3745,7 +3752,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -3753,7 +3760,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -3761,7 +3768,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3780,14 +3787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
